--- a/file/生成的Excel.xlsx
+++ b/file/生成的Excel.xlsx
@@ -424,282 +424,278 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>项目名称</t>
+          <t>事业部</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华能陕西定边郝滩一期50MW工程项目</t>
+          <t>西北事业部</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>华能云南富源一把伞48MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大唐新疆柴窝堡二期49.5MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>粤水电新疆达坂城第十二师达坂城50MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>海装新能源内蒙古正镶白旗乌宁巴图一期49.5MW工程项目</t>
+          <t>华北事业部</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>海为支油新疆达坂城一期49.5MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>海为支油新疆吉木乃县一期49.5MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>盛天巴里坤三塘湖一、二期</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>华冉新疆哈密烟墩第六风场一期50MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>华冉新疆哈密烟墩第六风电场二期150MW（第一批50套设备）工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>华冉新疆哈密烟墩第六风电场二期150MW项目（第二批25套设备）工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>华能陕西靖边一期49.5MW工程项目</t>
+          <t>西北事业部</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>华能陕西靖边二期49.5MW工程项目</t>
+          <t>西北事业部</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>海装新能源新疆哈密风电基地二期景峡第六风电场A区一、二标段200MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>国华新疆哈密景峡四风电场600MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>华冉东方新疆哈密景峡第二风电场C区（北区100MW）工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>特变电工新疆吉木乃一期49.5MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>华能甘肃酒泉安北第三风电场AB区40万千瓦特许权（100MW）工程项目</t>
+          <t>西北事业部</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>云南能投云南泸西永三一期48MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>云南能投云南泸西县孔照普48MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>云南能投云南会泽县大海梁子48MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>云南能投云南会泽县头道坪48MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>云南能投云南省马龙县对门梁子90MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>云南能投云南楚雄州大中山40MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>云南能投云南楚雄州老尖山48MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>华能国际江苏如东八仙角海上风电场100MW工程项目</t>
+          <t>海上运维中心</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>华润新能源河南内黄润风400MW风电项目</t>
+          <t>西北事业部</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>中能建投广东韶关南雄犁牛坪50MW工程项目</t>
+          <t>东南事业部</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>华能云南富源文笔山40MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>海装新能源重庆万盛南天门32MW工程项目</t>
+          <t>西南事业部</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>国华内蒙古锡林郭勒锡盟三期50MW项目</t>
+          <t>华北事业部</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>新华水电新疆哈密巴里坤三塘湖一期49.5MW工程项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>华电山东龙口风电有限公司二期49.8MW风电场工程项目</t>
+          <t>东南事业部</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>广西灵山八一茶场100MW工程项目</t>
+          <t>东南事业部</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>北京瑞启达新能源格尔木东出口一、二期2*50MW风电场工程</t>
+          <t>西北事业部</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>哈密海新能源十三师三塘湖一期、二期99MW风电场项目</t>
+          <t>新疆事业部</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>中广核广东高州68MW工程项目</t>
+          <t>东南事业部</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>龙源江苏如东潮间带试验风电场10MW工程项目</t>
+          <t>海上事业部</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>华源电力昌图曲家店48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>

--- a/file/生成的Excel.xlsx
+++ b/file/生成的Excel.xlsx
@@ -424,278 +424,282 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>事业部</t>
+          <t>项目名称</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>西北事业部</t>
+          <t>华能陕西定边郝滩一期50MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>华能云南富源一把伞48MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>大唐新疆柴窝堡二期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>粤水电新疆达坂城第十二师达坂城50MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>华北事业部</t>
+          <t>海装新能源内蒙古正镶白旗乌宁巴图一期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>海为支油新疆达坂城一期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>海为支油新疆吉木乃县一期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>盛天巴里坤三塘湖一、二期</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>华冉新疆哈密烟墩第六风场一期50MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>华冉新疆哈密烟墩第六风电场二期150MW（第一批50套设备）工程项目</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>华冉新疆哈密烟墩第六风电场二期150MW项目（第二批25套设备）工程项目</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>西北事业部</t>
+          <t>华能陕西靖边一期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>西北事业部</t>
+          <t>华能陕西靖边二期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>海装新能源新疆哈密风电基地二期景峡第六风电场A区一、二标段200MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>国华新疆哈密景峡四风电场600MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>华冉东方新疆哈密景峡第二风电场C区（北区100MW）工程项目</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>特变电工新疆吉木乃一期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>西北事业部</t>
+          <t>华能甘肃酒泉安北第三风电场AB区40万千瓦特许权（100MW）工程项目</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>云南能投云南泸西永三一期48MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>云南能投云南泸西县孔照普48MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>云南能投云南会泽县大海梁子48MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>云南能投云南会泽县头道坪48MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>云南能投云南省马龙县对门梁子90MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>云南能投云南楚雄州大中山40MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>云南能投云南楚雄州老尖山48MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>海上运维中心</t>
+          <t>华能国际江苏如东八仙角海上风电场100MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>西北事业部</t>
+          <t>华润新能源河南内黄润风400MW风电项目</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>东南事业部</t>
+          <t>中能建投广东韶关南雄犁牛坪50MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>华能云南富源文笔山40MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>西南事业部</t>
+          <t>海装新能源重庆万盛南天门32MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>华北事业部</t>
+          <t>国华内蒙古锡林郭勒锡盟三期50MW项目</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>新华水电新疆哈密巴里坤三塘湖一期49.5MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>东南事业部</t>
+          <t>华电山东龙口风电有限公司二期49.8MW风电场工程项目</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>东南事业部</t>
+          <t>广西灵山八一茶场100MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>西北事业部</t>
+          <t>北京瑞启达新能源格尔木东出口一、二期2*50MW风电场工程</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>新疆事业部</t>
+          <t>哈密海新能源十三师三塘湖一期、二期99MW风电场项目</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>东南事业部</t>
+          <t>中广核广东高州68MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>海上事业部</t>
+          <t>龙源江苏如东潮间带试验风电场10MW工程项目</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>华源电力昌图曲家店48MW工程项目</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -707,284 +711,132 @@
       <c r="A43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>华能陕西定边郝滩一期50MW工程项目</t>
+          <t>风场</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>华能云南富源一把伞48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>大唐新疆柴窝堡二期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>粤水电新疆达坂城第十二师达坂城50MW工程项目</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>海装新能源内蒙古正镶白旗乌宁巴图一期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>海为支油新疆达坂城一期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>海为支油新疆吉木乃县一期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>盛天巴里坤三塘湖一、二期</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>华冉新疆哈密烟墩第六风场一期50MW工程项目</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>华冉新疆哈密烟墩第六风电场二期150MW（第一批50套设备）工程项目</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>华冉新疆哈密烟墩第六风电场二期150MW项目（第二批25套设备）工程项目</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>华能陕西靖边一期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>华能陕西靖边二期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>海装新能源新疆哈密风电基地二期景峡第六风电场A区一、二标段200MW工程项目</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>国华新疆哈密景峡四风电场600MW工程项目</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>华冉东方新疆哈密景峡第二风电场C区（北区100MW）工程项目</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>特变电工新疆吉木乃一期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>华能甘肃酒泉安北第三风电场AB区40万千瓦特许权（100MW）工程项目</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>云南能投云南泸西永三一期48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>云南能投云南泸西县孔照普48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>云南能投云南会泽县大海梁子48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>云南能投云南会泽县头道坪48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>云南能投云南省马龙县对门梁子90MW工程项目</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>云南能投云南楚雄州大中山40MW工程项目</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>云南能投云南楚雄州老尖山48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>华能国际江苏如东八仙角海上风电场100MW工程项目</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>华润新能源河南内黄润风400MW风电项目</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>中能建投广东韶关南雄犁牛坪50MW工程项目</t>
+          <t>研究院</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>华能云南富源文笔山40MW工程项目</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>海装新能源重庆万盛南天门32MW工程项目</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>国华内蒙古锡林郭勒锡盟三期50MW项目</t>
-        </is>
-      </c>
+      <c r="A75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>新华水电新疆哈密巴里坤三塘湖一期49.5MW工程项目</t>
-        </is>
-      </c>
+      <c r="A76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>华电山东龙口风电有限公司二期49.8MW风电场工程项目</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>广西灵山八一茶场100MW工程项目</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>北京瑞启达新能源格尔木东出口一、二期2*50MW风电场工程</t>
-        </is>
-      </c>
+      <c r="A79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>哈密海新能源十三师三塘湖一期、二期99MW风电场项目</t>
-        </is>
-      </c>
+      <c r="A80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>中广核广东高州68MW工程项目</t>
-        </is>
-      </c>
+      <c r="A81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>龙源江苏如东潮间带试验风电场10MW工程项目</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>华源电力昌图曲家店48MW工程项目</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
